--- a/pro/perifericos.xlsx
+++ b/pro/perifericos.xlsx
@@ -463,276 +463,276 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pieza de fabricante KM03TPieza de Dell 210-BLHH</t>
+          <t>Pieza de fabricante 83XJYPieza de Dell 545-BBFS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monitor gaming QD-OLED Alienware de 68,58 cm (27) a 360 Hz - AW2725DF</t>
+          <t>Auriculares gaming inalámbricos Alienware Pro</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>698.99</v>
+        <v>255</v>
       </c>
       <c r="D2" t="n">
-        <v>577.6799999999999</v>
+        <v>210.74</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/alienware/aw2725df/media-gallery/monitor-alienware-2725df-black-gallery-1-mg.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/headphones/aw-pro-wireless-headset/media-gallery/dark-side-of-the-moon/headset-aw-pro-bk-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pieza de fabricante J1PTNPieza de Dell 210-AZZH</t>
+          <t>Pieza de fabricante F8GPYPieza de Dell 210-BFRQ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monitor curvo para juegos Dell de 81,28 cm (32") (S3222DGM)</t>
+          <t>Monitor curvo Alienware 34 QD-OLED para juegos - AW3423DWF</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>344.85</v>
+        <v>914.76</v>
       </c>
       <c r="D3" t="n">
-        <v>285</v>
+        <v>756</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent//content/dam/ss2/product-images/dell-client-products/peripherals/monitors/s-series/s3222dgm/media-gallery/s3222dgm_cfp_00000ff090_bk.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/alienware/aw3423dwf/media-gallery/monitor-alienware-aw3423dwf-black-gallery-10.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pieza de fabricante MPJG7Pieza de Dell 210-BLLV</t>
+          <t>Pieza de fabricante 71YCFPieza de Dell 210-AZZD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monitor gaming QD-OLED 4K Alienware de 81,28 cm (32") - AW3225QF</t>
+          <t>Monitor curvo para juegos Dell de 68,58 cm (27") (S2722DGM)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>849.96</v>
+        <v>195.16</v>
       </c>
       <c r="D4" t="n">
-        <v>702.45</v>
+        <v>161.29</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/aw-series/aw3225qf/media-gallery/monitor-alienware-aw3225qf-white-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent//content/dam/ss2/product-images/dell-client-products/peripherals/monitors/s-series/s2722dgm/media-gallery/s2722dgm_cfp_00000ff090_bk.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pieza de fabricante 71YCFPieza de Dell 210-AZZD</t>
+          <t>Pieza de fabricante R6FWGPieza de Dell 460-BDIC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Monitor curvo para juegos Dell de 68,58 cm (27") (S2722DGM)</t>
+          <t>Mochila de trabajo Alienware Horizon</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>195.16</v>
+        <v>59.99</v>
       </c>
       <c r="D5" t="n">
-        <v>161.29</v>
+        <v>49.58</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent//content/dam/ss2/product-images/dell-client-products/peripherals/monitors/s-series/s2722dgm/media-gallery/s2722dgm_cfp_00000ff090_bk.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/peripherals/alienware/backpack/aw523p/aw523p-mg-1-5000.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pieza de fabricante CNH4JPieza de Dell 460-BCYY</t>
+          <t>Pieza de fabricante KM03TPieza de Dell 210-BLHH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mochila Dell Gaming 17</t>
+          <t>Monitor gaming QD-OLED Alienware de 68,58 cm (27) a 360 Hz - AW2725DF</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58.36</v>
+        <v>698.99</v>
       </c>
       <c r="D6" t="n">
-        <v>48.23</v>
+        <v>577.6799999999999</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>//snpi.dell.com/snp/images/products/large/es-es~460-BCYY_V1%20-%20Copy/460-BCYY_V1%20-%20Copy.jpg</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/alienware/aw2725df/media-gallery/monitor-alienware-2725df-black-gallery-1-mg.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pieza de fabricante 8VY4KPieza de Dell 210-BDXS</t>
+          <t>Pieza de fabricante HF0CGPieza de Dell 210-AZZE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Monitor Dell 32 UHD 4K para juegos - G3223Q</t>
+          <t>Monitor curvo para juegos Dell 34 – S3422DWG</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>519.96</v>
+        <v>364.98</v>
       </c>
       <c r="D7" t="n">
-        <v>429.72</v>
+        <v>301.64</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/g-series/g3223q/media-gallery/monitor-g3223q-black-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/s-series/s3422dwg/media-gallery/s3422dwg_xfp_01_bk.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pieza de fabricante PM80JPieza de Dell 210-BHTK</t>
+          <t>Pieza de fabricante 7KYY6Pieza de Dell 545-BBFT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Monitor gaming Dell 27 - G2724D</t>
+          <t>Auriculares gaming inalámbricos Alienware Pro</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>217.99</v>
+        <v>255</v>
       </c>
       <c r="D8" t="n">
-        <v>180.16</v>
+        <v>210.74</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/g-series/g2724d/media-gallery/monitor-g2724d-black-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/headphones/aw-pro-wireless-headset/media-gallery/lunar-light/headset-aw-pro-wh-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pieza de fabricante HF0CGPieza de Dell 210-AZZE</t>
+          <t>Pieza de fabricante 8VY4KPieza de Dell 210-BDXS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Monitor curvo para juegos Dell 34 – S3422DWG</t>
+          <t>Monitor Dell 32 UHD 4K para juegos - G3223Q</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>364.98</v>
+        <v>519.96</v>
       </c>
       <c r="D9" t="n">
-        <v>301.64</v>
+        <v>429.72</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/s-series/s3422dwg/media-gallery/s3422dwg_xfp_01_bk.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/g-series/g3223q/media-gallery/monitor-g3223q-black-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pieza de fabricante F8GPYPieza de Dell 210-BFRQ</t>
+          <t>Pieza de fabricante J1PTNPieza de Dell 210-AZZH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Monitor curvo Alienware 34 QD-OLED para juegos - AW3423DWF</t>
+          <t>Monitor curvo para juegos Dell de 81,28 cm (32") (S3222DGM)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>914.76</v>
+        <v>344.85</v>
       </c>
       <c r="D10" t="n">
-        <v>756</v>
+        <v>285</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/alienware/aw3423dwf/media-gallery/monitor-alienware-aw3423dwf-black-gallery-10.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent//content/dam/ss2/product-images/dell-client-products/peripherals/monitors/s-series/s3222dgm/media-gallery/s3222dgm_cfp_00000ff090_bk.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pieza de fabricante R6FWGPieza de Dell 460-BDIC</t>
+          <t>Pieza de fabricante CNH4JPieza de Dell 460-BCYY</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mochila de trabajo Alienware Horizon</t>
+          <t>Mochila Dell Gaming 17</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>59.99</v>
+        <v>58.36</v>
       </c>
       <c r="D11" t="n">
-        <v>49.58</v>
+        <v>48.23</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/peripherals/alienware/backpack/aw523p/aw523p-mg-1-5000.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//snpi.dell.com/snp/images/products/large/es-es~460-BCYY_V1%20-%20Copy/460-BCYY_V1%20-%20Copy.jpg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pieza de fabricante 7KYY6Pieza de Dell 545-BBFT</t>
+          <t>Pieza de fabricante MPJG7Pieza de Dell 210-BLLV</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Auriculares gaming inalámbricos Alienware Pro</t>
+          <t>Monitor gaming QD-OLED 4K Alienware de 81,28 cm (32") - AW3225QF</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>255</v>
+        <v>849.96</v>
       </c>
       <c r="D12" t="n">
-        <v>210.74</v>
+        <v>702.45</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/headphones/aw-pro-wireless-headset/media-gallery/lunar-light/headset-aw-pro-wh-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/aw-series/aw3225qf/media-gallery/monitor-alienware-aw3225qf-white-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pieza de fabricante 83XJYPieza de Dell 545-BBFS</t>
+          <t>Pieza de fabricante PM80JPieza de Dell 210-BHTK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Auriculares gaming inalámbricos Alienware Pro</t>
+          <t>Monitor gaming Dell 27 - G2724D</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>255</v>
+        <v>217.99</v>
       </c>
       <c r="D13" t="n">
-        <v>210.74</v>
+        <v>180.16</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/headphones/aw-pro-wireless-headset/media-gallery/dark-side-of-the-moon/headset-aw-pro-bk-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/g-series/g2724d/media-gallery/monitor-g2724d-black-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>

--- a/pro/perifericos.xlsx
+++ b/pro/perifericos.xlsx
@@ -463,46 +463,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pieza de fabricante 83XJYPieza de Dell 545-BBFS</t>
+          <t>Pieza de fabricante F8GPYPieza de Dell 210-BFRQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auriculares gaming inalámbricos Alienware Pro</t>
+          <t>Monitor curvo Alienware 34 QD-OLED para juegos - AW3423DWF</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>255</v>
+        <v>914.76</v>
       </c>
       <c r="D2" t="n">
-        <v>210.74</v>
+        <v>756</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/headphones/aw-pro-wireless-headset/media-gallery/dark-side-of-the-moon/headset-aw-pro-bk-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/alienware/aw3423dwf/media-gallery/monitor-alienware-aw3423dwf-black-gallery-10.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pieza de fabricante F8GPYPieza de Dell 210-BFRQ</t>
+          <t>Pieza de fabricante PM80JPieza de Dell 210-BHTK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monitor curvo Alienware 34 QD-OLED para juegos - AW3423DWF</t>
+          <t>Monitor gaming Dell 27 - G2724D</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>914.76</v>
+        <v>217.99</v>
       </c>
       <c r="D3" t="n">
-        <v>756</v>
+        <v>180.16</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/alienware/aw3423dwf/media-gallery/monitor-alienware-aw3423dwf-black-gallery-10.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/g-series/g2724d/media-gallery/monitor-g2724d-black-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>195.16</v>
+        <v>168.43</v>
       </c>
       <c r="D4" t="n">
-        <v>161.29</v>
+        <v>139.2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -532,23 +532,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pieza de fabricante R6FWGPieza de Dell 460-BDIC</t>
+          <t>Pieza de fabricante HF0CGPieza de Dell 210-AZZE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mochila de trabajo Alienware Horizon</t>
+          <t>Monitor curvo para juegos Dell 34 – S3422DWG</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59.99</v>
+        <v>364.98</v>
       </c>
       <c r="D5" t="n">
-        <v>49.58</v>
+        <v>301.64</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/peripherals/alienware/backpack/aw523p/aw523p-mg-1-5000.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/s-series/s3422dwg/media-gallery/s3422dwg_xfp_01_bk.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
@@ -578,115 +578,115 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pieza de fabricante HF0CGPieza de Dell 210-AZZE</t>
+          <t>Pieza de fabricante 7KYY6Pieza de Dell 545-BBFT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Monitor curvo para juegos Dell 34 – S3422DWG</t>
+          <t>Auriculares gaming inalámbricos Alienware Pro</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>364.98</v>
+        <v>255</v>
       </c>
       <c r="D7" t="n">
-        <v>301.64</v>
+        <v>210.74</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/s-series/s3422dwg/media-gallery/s3422dwg_xfp_01_bk.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/headphones/aw-pro-wireless-headset/media-gallery/lunar-light/headset-aw-pro-wh-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pieza de fabricante 7KYY6Pieza de Dell 545-BBFT</t>
+          <t>Pieza de fabricante R6FWGPieza de Dell 460-BDIC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Auriculares gaming inalámbricos Alienware Pro</t>
+          <t>Mochila de trabajo Alienware Horizon</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>255</v>
+        <v>59.99</v>
       </c>
       <c r="D8" t="n">
-        <v>210.74</v>
+        <v>49.58</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/headphones/aw-pro-wireless-headset/media-gallery/lunar-light/headset-aw-pro-wh-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/peripherals/alienware/backpack/aw523p/aw523p-mg-1-5000.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pieza de fabricante 8VY4KPieza de Dell 210-BDXS</t>
+          <t>Pieza de fabricante 83XJYPieza de Dell 545-BBFS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Monitor Dell 32 UHD 4K para juegos - G3223Q</t>
+          <t>Auriculares gaming inalámbricos Alienware Pro</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>519.96</v>
+        <v>255</v>
       </c>
       <c r="D9" t="n">
-        <v>429.72</v>
+        <v>210.74</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/g-series/g3223q/media-gallery/monitor-g3223q-black-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/headphones/aw-pro-wireless-headset/media-gallery/dark-side-of-the-moon/headset-aw-pro-bk-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pieza de fabricante J1PTNPieza de Dell 210-AZZH</t>
+          <t>Pieza de fabricante 8VY4KPieza de Dell 210-BDXS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Monitor curvo para juegos Dell de 81,28 cm (32") (S3222DGM)</t>
+          <t>Monitor Dell 32 UHD 4K para juegos - G3223Q</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>344.85</v>
+        <v>519.96</v>
       </c>
       <c r="D10" t="n">
-        <v>285</v>
+        <v>429.72</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent//content/dam/ss2/product-images/dell-client-products/peripherals/monitors/s-series/s3222dgm/media-gallery/s3222dgm_cfp_00000ff090_bk.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/g-series/g3223q/media-gallery/monitor-g3223q-black-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pieza de fabricante CNH4JPieza de Dell 460-BCYY</t>
+          <t>Pieza de fabricante J1PTNPieza de Dell 210-AZZH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mochila Dell Gaming 17</t>
+          <t>Monitor curvo para juegos Dell de 81,28 cm (32") (S3222DGM)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>58.36</v>
+        <v>344.85</v>
       </c>
       <c r="D11" t="n">
-        <v>48.23</v>
+        <v>285</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>//snpi.dell.com/snp/images/products/large/es-es~460-BCYY_V1%20-%20Copy/460-BCYY_V1%20-%20Copy.jpg</t>
+          <t>//i.dell.com/is/image/DellContent//content/dam/ss2/product-images/dell-client-products/peripherals/monitors/s-series/s3222dgm/media-gallery/s3222dgm_cfp_00000ff090_bk.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
         </is>
       </c>
     </row>
@@ -716,23 +716,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pieza de fabricante PM80JPieza de Dell 210-BHTK</t>
+          <t>Pieza de fabricante CNH4JPieza de Dell 460-BCYY</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Monitor gaming Dell 27 - G2724D</t>
+          <t>Mochila Dell Gaming 17</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>217.99</v>
+        <v>58.36</v>
       </c>
       <c r="D13" t="n">
-        <v>180.16</v>
+        <v>48.23</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>//i.dell.com/is/image/DellContent/content/dam/ss2/product-images/dell-client-products/peripherals/monitors/g-series/g2724d/media-gallery/monitor-g2724d-black-gallery-1.psd?qlt=90,0&amp;op_usm=1.75,0.3,2,0&amp;resMode=sharp&amp;pscan=auto&amp;fmt=png-alpha&amp;hei=500</t>
+          <t>//snpi.dell.com/snp/images/products/large/es-es~460-BCYY_V1%20-%20Copy/460-BCYY_V1%20-%20Copy.jpg</t>
         </is>
       </c>
     </row>
